--- a/MainTop/22.07.2025 имена/имена.xlsx
+++ b/MainTop/22.07.2025 имена/имена.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\22.07.2025 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB0EB821-1C1D-4503-BA54-2275ED3FBF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE267AED-1573-4DB9-BF75-2DA589E65787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26FA7ACD-8224-4658-B9AB-569720F7E08A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Артикул</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Термобирки Лев</t>
   </si>
   <si>
-    <t>Термобирки Мухаммад</t>
-  </si>
-  <si>
     <t>Термобирки Константин</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>Термобирки Николай</t>
   </si>
   <si>
-    <t>Термобирки Стас</t>
-  </si>
-  <si>
     <t>Термобирки Тимур</t>
   </si>
   <si>
@@ -318,30 +312,18 @@
     <t>Термобирки Захар</t>
   </si>
   <si>
-    <t>Термобирки Гордей</t>
-  </si>
-  <si>
     <t>Термобирки Глеб</t>
   </si>
   <si>
     <t>Термобирки Влад</t>
   </si>
   <si>
-    <t>Термобирки Вениамин</t>
-  </si>
-  <si>
     <t>Термобирки Святослав</t>
   </si>
   <si>
     <t>Термобирки Павел</t>
   </si>
   <si>
-    <t>Термобирки Виолетта</t>
-  </si>
-  <si>
-    <t>Термобирки Альбина</t>
-  </si>
-  <si>
     <t>Термобирки Марьяна</t>
   </si>
   <si>
@@ -360,9 +342,6 @@
     <t>Термобирки Ника</t>
   </si>
   <si>
-    <t>Термобирки Аглая</t>
-  </si>
-  <si>
     <t>Термобирки Вера</t>
   </si>
   <si>
@@ -370,6 +349,9 @@
   </si>
   <si>
     <t>Среднесуточные продажи за 28 дней</t>
+  </si>
+  <si>
+    <t>Num_Copies</t>
   </si>
 </sst>
 </file>
@@ -428,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
@@ -436,6 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -750,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0269D1-3034-4F51-92A3-D37A60BE5302}">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +750,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,14 +761,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C65" si="0">ROUNDUP(B2*D2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>2.6</v>
+        <f t="shared" ref="C2:C64" si="0">ROUNDUP(B2*D2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -790,49 +776,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.04</v>
+        <v>0.61</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2.6</v>
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>0.14000000000000001</v>
@@ -841,13 +827,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>2.6</v>
+      <c r="D6" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>0.18</v>
@@ -856,13 +842,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>2.6</v>
+      <c r="D7" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0.18</v>
@@ -871,28 +857,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>2.6</v>
+      <c r="D8" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>2.6</v>
+      <c r="D9" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>0.04</v>
@@ -901,13 +887,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>2.6</v>
+      <c r="D10" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>0.14000000000000001</v>
@@ -916,28 +902,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>2.6</v>
+      <c r="D11" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>0.11</v>
@@ -946,28 +932,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>2.6</v>
+      <c r="D13" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>2.6</v>
+      <c r="D14" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>0.04</v>
@@ -976,8 +962,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>2.6</v>
+      <c r="D15" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,14 +971,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.32</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>2.6</v>
+      <c r="D16" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1000,14 +986,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>0.28999999999999998</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>2.6</v>
+      <c r="D17" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1015,14 +1001,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.39</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>2.6</v>
+      <c r="D18" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1030,14 +1016,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>2.6</v>
+      <c r="D19" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,14 +1031,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>2.6</v>
+      <c r="D20" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1060,14 +1046,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>2.6</v>
+      <c r="D21" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,8 +1067,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>2.6</v>
+      <c r="D22" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,14 +1076,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D23">
-        <v>2.6</v>
+      <c r="D23" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,8 +1097,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>2.6</v>
+      <c r="D24" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,14 +1106,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>2.6</v>
+      <c r="D25" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1135,14 +1121,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>2.6</v>
+      <c r="D26" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,14 +1136,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>0.43</v>
+        <v>0.82</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D27">
-        <v>2.6</v>
+      <c r="D27" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1165,14 +1151,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>0.93</v>
+        <v>0.25</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1180,314 +1166,313 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D29">
-        <v>2.6</v>
+      <c r="D29" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D30">
-        <v>2.6</v>
+      <c r="D30" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>1.5</v>
+        <v>0.36</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>0.04</v>
+        <v>2.04</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>2.6</v>
+        <v>4</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>0.32</v>
+        <v>1.68</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>2.6</v>
+        <v>4</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>2.6</v>
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>1.79</v>
+        <v>3.68</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>2.6</v>
+        <v>6</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>1.57</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>2.6</v>
+        <v>3</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>3.61</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>2.6</v>
+        <v>2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.54</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D38">
-        <v>2.6</v>
+      <c r="D38" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>0.89</v>
+        <v>1.32</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D39">
-        <v>2.6</v>
+      <c r="D39" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>2.6</v>
+        <v>3</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>2.6</v>
+        <v>3</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2">
-        <v>1.21</v>
+        <v>0.64</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <v>2.6</v>
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>1.21</v>
+        <v>0.71</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>2.6</v>
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D44">
-        <v>2.6</v>
+      <c r="D44" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D45">
-        <v>2.6</v>
+      <c r="D45" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D46">
-        <v>2.6</v>
+      <c r="D46" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.79</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D47">
-        <v>2.6</v>
+      <c r="D47" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D48">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B49" s="2">
-        <v>0.68</v>
+        <v>0.11</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,14 +1480,14 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1510,14 +1495,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>0.43</v>
+        <v>3.29</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <v>2.6</v>
+        <v>6</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1525,14 +1509,14 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>2.96</v>
+        <v>1.89</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D52">
-        <v>2.6</v>
+        <v>4</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1540,14 +1524,14 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>1.79</v>
+        <v>0.96</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D53">
-        <v>2.6</v>
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,14 +1539,14 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.93</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D54">
-        <v>2.6</v>
+      <c r="D54" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1570,14 +1554,14 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <v>2.6</v>
+        <v>2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,14 +1569,14 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.89</v>
+        <v>1.5</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D56">
-        <v>2.6</v>
+      <c r="D56" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,14 +1584,14 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>1.32</v>
+        <v>0.39</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,14 +1599,14 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>2.6</v>
+        <v>2</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,14 +1614,14 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D59">
-        <v>2.6</v>
+      <c r="D59" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,14 +1629,14 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.5</v>
+        <v>1.57</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <v>2.6</v>
+        <v>3</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1660,14 +1644,14 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D61">
-        <v>2.6</v>
+        <v>3</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,14 +1659,14 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D62">
-        <v>2.6</v>
+        <v>3</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,14 +1674,14 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D63">
-        <v>2.6</v>
+        <v>3</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,14 +1689,14 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D64">
-        <v>2.6</v>
+        <v>2</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1720,14 +1704,14 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>1.07</v>
+        <v>1.46</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C65:C106" si="1">ROUNDUP(B65*D65,0)</f>
         <v>3</v>
       </c>
-      <c r="D65">
-        <v>2.6</v>
+      <c r="D65" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,64 +1719,64 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C113" si="1">ROUNDUP(B66*D66,0)</f>
-        <v>4</v>
-      </c>
-      <c r="D66">
-        <v>2.6</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B67" s="2">
-        <v>0.79</v>
+        <v>1.61</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D67">
-        <v>2.6</v>
+        <v>4</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D68">
-        <v>2.6</v>
+        <v>4</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
         <v>1.07</v>
@@ -1801,58 +1785,58 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D70">
-        <v>2.6</v>
+      <c r="D70" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D71">
-        <v>2.6</v>
+      <c r="D71" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D72">
-        <v>2.6</v>
+      <c r="D72" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D73">
-        <v>2.6</v>
+      <c r="D73" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
         <v>0.54</v>
@@ -1861,13 +1845,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D74">
-        <v>2.6</v>
+      <c r="D74" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2">
         <v>1.07</v>
@@ -1876,58 +1860,58 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D75">
-        <v>2.6</v>
+      <c r="D75" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>2.1800000000000002</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D76">
-        <v>2.6</v>
+        <v>5</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D77">
-        <v>2.6</v>
+      <c r="D77" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D78">
-        <v>2.6</v>
+      <c r="D78" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
         <v>1.07</v>
@@ -1936,8 +1920,8 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D79">
-        <v>2.6</v>
+      <c r="D79" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1945,14 +1929,14 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D80">
-        <v>2.6</v>
+      <c r="D80" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1966,8 +1950,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D81">
-        <v>2.6</v>
+      <c r="D81" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1975,14 +1959,14 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.68</v>
+        <v>1.07</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D82">
-        <v>2.6</v>
+        <v>3</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1990,14 +1974,14 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>1.04</v>
+        <v>0.54</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D83">
-        <v>2.6</v>
+        <v>2</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2005,14 +1989,14 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.54</v>
+        <v>1.46</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>2.6</v>
+        <v>3</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2020,14 +2004,14 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>1.5</v>
+        <v>0.82</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D85">
-        <v>2.6</v>
+        <v>2</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,14 +2019,14 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.64</v>
+        <v>0.11</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D86">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2050,14 +2034,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D87">
-        <v>2.6</v>
+      <c r="D87" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2065,14 +2049,14 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.13</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D88">
-        <v>2.6</v>
+      <c r="D88" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2080,14 +2064,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D89">
-        <v>2.6</v>
+      <c r="D89" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2095,14 +2079,14 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>2.6</v>
+        <v>2</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2110,14 +2094,14 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.47</v>
+        <v>0.11</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D91">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,14 +2109,14 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D92">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2140,14 +2124,14 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.13</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D93">
-        <v>2.6</v>
+      <c r="D93" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2155,14 +2139,14 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2170,14 +2154,14 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D95">
-        <v>2.6</v>
+      <c r="D95" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2185,14 +2169,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D96">
-        <v>2.6</v>
+      <c r="D96" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2200,14 +2184,14 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D97">
-        <v>2.6</v>
+      <c r="D97" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2215,14 +2199,14 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2230,14 +2214,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D99">
-        <v>2.6</v>
+      <c r="D99" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2245,14 +2229,14 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.47</v>
+        <v>0.11</v>
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D100">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2260,14 +2244,14 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,14 +2259,14 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.17</v>
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D102">
-        <v>2.6</v>
+      <c r="D102" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2290,14 +2274,14 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>0.47</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D103">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,14 +2289,14 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="C104">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2320,14 +2304,14 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C105">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>2.6</v>
+        <v>1</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2335,14 +2319,14 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="C106">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D106">
-        <v>2.6</v>
+      <c r="D106" s="3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2350,128 +2334,18 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="C107">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="C109">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D109">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="C110">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D110">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="C111">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" s="2">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C113">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C114">
-        <f>ROUNDUP(B114*D114,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C115">
-        <f>SUM(C2:C114)</f>
-        <v>247</v>
+        <f>ROUNDUP(B107*D107,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="257" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>